--- a/documentatie/kerntaak 4/CRPR lijst.xlsx
+++ b/documentatie/kerntaak 4/CRPR lijst.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_BattleShip\documentatie\kerntaak 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Unity_BattleShip\documentatie\kerntaak 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C7237AF-81F5-4FB9-A696-B3B585FBC0C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB96F56D-27D8-4F81-BFEB-72BF3AFFBB92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="17">
   <si>
     <t>IPC
 (IS, PR, CR)</t>
@@ -85,6 +85,24 @@
   </si>
   <si>
     <t>hierboven aanvullen</t>
+  </si>
+  <si>
+    <t>Schepen kunnen slepen op het veld inplaats van klikken</t>
+  </si>
+  <si>
+    <t>Daan</t>
+  </si>
+  <si>
+    <t>Schepen niet op het 2e veld kunnen plaatsen</t>
+  </si>
+  <si>
+    <t>Joël</t>
+  </si>
+  <si>
+    <t>Een knop om het spel te beëindigen tijdens het spelen</t>
+  </si>
+  <si>
+    <t>Werkende settings</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1037,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,32 +1087,92 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
       <c r="D2" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="8">
+        <v>43850</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>43845</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
       <c r="D4" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
+        <v>43850</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>9</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>43850</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1998,12 +2076,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </jeb5123c558143d5ab1e1526e87a8da0>
+    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2224,20 +2304,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <jeb5123c558143d5ab1e1526e87a8da0 xmlns="b7e4e9fd-5e36-4299-889f-f6136aff670e">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </jeb5123c558143d5ab1e1526e87a8da0>
-    <TaxCatchAll xmlns="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FB374C-C505-4CA2-B4A2-69D21E0EECC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47304BC8-09B1-4CF3-8AEB-ED507FB2BAEF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2262,18 +2349,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47304BC8-09B1-4CF3-8AEB-ED507FB2BAEF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4FB374C-C505-4CA2-B4A2-69D21E0EECC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="fbafb59e-d651-4668-8e65-f7f85ceca18b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="b7e4e9fd-5e36-4299-889f-f6136aff670e"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>